--- a/Lab3/Medições do Sistema.xlsx
+++ b/Lab3/Medições do Sistema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loure\Dropbox\Lourenço\Faculdade\5A1S\SCDTR\SCDTR-Project\Lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00BA0A1F-80CF-41B3-B24E-28574B6154FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F6F732-9522-4617-901C-B772ED097577}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{94E0B860-0D7F-4EAE-AF2A-5E89F4BDE1C2}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>ui</t>
   </si>
@@ -53,9 +53,6 @@
     <t>intersect (vi+0.67*dv)</t>
   </si>
   <si>
-    <t>tau(x)</t>
-  </si>
-  <si>
     <t>K0(x)</t>
   </si>
   <si>
@@ -63,6 +60,33 @@
   </si>
   <si>
     <t>Arduino Due</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>tau(x) [us]</t>
+  </si>
+  <si>
+    <t>x = 10^(-b/m)*(Vcc/Vi - 1)^(1/m)</t>
+  </si>
+  <si>
+    <t>[Lux]</t>
+  </si>
+  <si>
+    <t>x [Lux]</t>
+  </si>
+  <si>
+    <t>tau(x) [s]</t>
+  </si>
+  <si>
+    <t>aa</t>
   </si>
 </sst>
 </file>
@@ -106,7 +130,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -118,6 +142,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -133,6 +164,4281 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>K0 vs illuminance - Arduino</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 2</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Folha1!$I$12:$I$13</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>K0(x)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.58</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-PT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Folha1!$L$13:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.0809270755251719</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.88420788784507</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.993176528014306</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43.092658424263689</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62.834157162840242</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Folha1!$I$13:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.43000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35999999999999988</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-224E-4F7D-BBC1-36963EE96A27}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="429922280"/>
+        <c:axId val="429923264"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Folha1!$L$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>x [Lux]</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:gradFill rotWithShape="1">
+                      <a:gsLst>
+                        <a:gs pos="0">
+                          <a:schemeClr val="accent1">
+                            <a:satMod val="103000"/>
+                            <a:lumMod val="102000"/>
+                            <a:tint val="94000"/>
+                          </a:schemeClr>
+                        </a:gs>
+                        <a:gs pos="50000">
+                          <a:schemeClr val="accent1">
+                            <a:satMod val="110000"/>
+                            <a:lumMod val="100000"/>
+                            <a:shade val="100000"/>
+                          </a:schemeClr>
+                        </a:gs>
+                        <a:gs pos="100000">
+                          <a:schemeClr val="accent1">
+                            <a:lumMod val="99000"/>
+                            <a:satMod val="120000"/>
+                            <a:shade val="78000"/>
+                          </a:schemeClr>
+                        </a:gs>
+                      </a:gsLst>
+                      <a:lin ang="5400000" scaled="0"/>
+                    </a:gradFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Folha1!$I$13:$I$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>0.57999999999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.52</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.43000000000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.35999999999999988</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.30000000000000004</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Folha1!$L$13:$L$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>3.0809270755251719</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>11.88420788784507</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>24.993176528014306</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>43.092658424263689</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>62.834157162840242</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-224E-4F7D-BBC1-36963EE96A27}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="429922280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Illuminance [Lux]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="429923264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="429923264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Static</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT" baseline="0"/>
+                  <a:t> Gain - </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>K0</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="429922280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Tau vs illuminance - Arduino</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 2</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Tau</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Folha1!$L$13:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.0809270755251719</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.88420788784507</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.993176528014306</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43.092658424263689</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62.834157162840242</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Folha1!$K$13:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.40352000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23068000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18380000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16888</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15300000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0BC8-4EAA-975E-B4C694588658}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="429922280"/>
+        <c:axId val="429923264"/>
+        <c:extLst/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="429922280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Illuminance [Lux]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="429923264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="429923264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT" baseline="0"/>
+                  <a:t>Tau [</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="429922280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>K0 vs illuminance - Arduino</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 1</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Illuminance</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Folha1!$L$3:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>11.171804186829144</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.399517710728546</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57.799298208164771</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85.924499069144076</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>116.88451035768179</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Folha1!$I$3:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.39000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.18000000000000016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C1B0-4EB7-959E-995A9F23EFB9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="429922280"/>
+        <c:axId val="429923264"/>
+        <c:extLst/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="429922280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Illuminance [Lux]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="429923264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="429923264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Static</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT" baseline="0"/>
+                  <a:t> Gain - </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>K0</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="429922280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Tau vs illuminance - Arduino</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 1</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>tau1+Folha1!$L$3:$L$7</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Folha1!$L$3:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>11.171804186829144</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.399517710728546</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57.799298208164771</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85.924499069144076</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>116.88451035768179</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Folha1!$K$3:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.16792000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13696</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11320000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10472000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.784000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CE82-4B8D-8C46-4AC70AA9AE28}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="429922280"/>
+        <c:axId val="429923264"/>
+        <c:extLst/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="429922280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Illuminance [Lux]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="429923264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="429923264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT" baseline="0"/>
+                  <a:t>Tau [</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="429922280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="242">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="242">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="242">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="242">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>167409</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>179821</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>496455</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>108816</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABE5804F-0D55-408A-B6BC-DDD5961F2B1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>173182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>155864</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>102177</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F8196D5-1376-48A9-84E3-B7B3B9E1D363}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>50512</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>379557</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>159905</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A9F94CE-1222-4B26-9013-FB6BB49E687C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>329045</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>159905</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B35016F6-1F1C-4B40-8F0E-55FEA75B7B83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -432,427 +4738,525 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B17B447-7BE9-48E8-9D93-BEADF7CA1324}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:AG37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="8" max="8" width="13.1796875" customWidth="1"/>
+    <col min="1" max="1" width="4.08984375" customWidth="1"/>
+    <col min="8" max="8" width="8.7265625" customWidth="1"/>
+    <col min="10" max="10" width="13" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11.1796875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:33" s="1" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="J2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1">
+        <v>-0.49340000000000001</v>
+      </c>
+      <c r="C3">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="D3">
         <v>1</v>
       </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C4" si="0">B3-A3</f>
+      <c r="E3">
+        <f t="shared" ref="E3:E4" si="0">D3-C3</f>
         <v>1</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>0.24</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>1.99</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F4" si="1">E3-D3</f>
+      <c r="H3">
+        <f t="shared" ref="H3:H4" si="1">G3-F3</f>
         <v>1.75</v>
       </c>
-      <c r="G3" s="2">
-        <f t="shared" ref="G3:G4" si="2">F3/C3</f>
+      <c r="I3" s="2">
+        <f t="shared" ref="I3:I4" si="2">H3/E3</f>
         <v>1.75</v>
       </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H4" si="3">D3+0.67*F3</f>
+      <c r="J3">
+        <f t="shared" ref="J3:J4" si="3">F3+0.67*H3</f>
         <v>1.4125000000000001</v>
       </c>
-      <c r="I3" s="2">
-        <f>117168-100376</f>
-        <v>16792</v>
+      <c r="K3" s="2">
+        <f>(117168-100376)*0.00001</f>
+        <v>0.16792000000000001</v>
+      </c>
+      <c r="L3" s="2">
+        <f>B5*(5/G3-1)^(1/B3)</f>
+        <v>11.171804186829144</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>0.2661</v>
+      </c>
+      <c r="C4">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="D4">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="E4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>1.99</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>2.62</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <f t="shared" si="1"/>
         <v>0.63000000000000012</v>
       </c>
-      <c r="G4" s="2">
+      <c r="I4" s="2">
         <f t="shared" si="2"/>
         <v>0.63000000000000012</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <f t="shared" si="3"/>
         <v>2.4121000000000001</v>
       </c>
-      <c r="I4" s="2">
-        <f>114272-100576</f>
-        <v>13696</v>
+      <c r="K4" s="2">
+        <f>(114272-100576)*0.00001</f>
+        <v>0.13696</v>
+      </c>
+      <c r="L4" s="2">
+        <f>B5*(5/G4-1)^(1/B3)</f>
+        <v>31.399517710728546</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>25.843900000000001</v>
+      </c>
+      <c r="C5">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="D5">
         <v>3</v>
       </c>
-      <c r="C5">
-        <f>B5-A5</f>
+      <c r="E5">
+        <f>D5-C5</f>
         <v>1</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>2.6</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>2.99</v>
       </c>
-      <c r="F5">
-        <f>E5-D5</f>
+      <c r="H5">
+        <f>G5-F5</f>
         <v>0.39000000000000012</v>
       </c>
-      <c r="G5" s="2">
-        <f>F5/C5</f>
+      <c r="I5" s="2">
+        <f>H5/E5</f>
         <v>0.39000000000000012</v>
       </c>
-      <c r="H5">
-        <f>D5+0.67*F5</f>
+      <c r="J5">
+        <f>F5+0.67*H5</f>
         <v>2.8613</v>
       </c>
-      <c r="I5" s="2">
-        <f>112016-100696</f>
-        <v>11320</v>
+      <c r="K5" s="2">
+        <f>(112016-100696)*0.00001</f>
+        <v>0.11320000000000001</v>
+      </c>
+      <c r="L5" s="2">
+        <f>B5*(5/G5-1)^(1/B3)</f>
+        <v>57.799298208164771</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="C6">
         <v>3</v>
       </c>
-      <c r="B6">
+      <c r="D6">
         <v>4</v>
       </c>
-      <c r="C6">
-        <f t="shared" ref="C6:C7" si="4">B6-A6</f>
+      <c r="E6">
+        <f t="shared" ref="E6:E7" si="4">D6-C6</f>
         <v>1</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>2.97</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>3.22</v>
       </c>
-      <c r="F6">
-        <f t="shared" ref="F6:F7" si="5">E6-D6</f>
+      <c r="H6">
+        <f t="shared" ref="H6:H7" si="5">G6-F6</f>
         <v>0.25</v>
       </c>
-      <c r="G6" s="2">
-        <f t="shared" ref="G6:G7" si="6">F6/C6</f>
+      <c r="I6" s="2">
+        <f t="shared" ref="I6:I7" si="6">H6/E6</f>
         <v>0.25</v>
       </c>
-      <c r="H6">
-        <f t="shared" ref="H6:H7" si="7">D6+0.67*F6</f>
+      <c r="J6">
+        <f t="shared" ref="J6:J7" si="7">F6+0.67*H6</f>
         <v>3.1375000000000002</v>
       </c>
-      <c r="I6" s="2">
-        <f>111208-100736</f>
-        <v>10472</v>
+      <c r="K6" s="2">
+        <f>(111208-100736)*0.00001</f>
+        <v>0.10472000000000001</v>
+      </c>
+      <c r="L6" s="2">
+        <f>B5*(5/G6-1)^(1/B3)</f>
+        <v>85.924499069144076</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="C7">
         <v>4</v>
       </c>
-      <c r="B7">
+      <c r="D7">
         <v>5</v>
       </c>
-      <c r="C7">
+      <c r="E7">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>3.21</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>3.39</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <f t="shared" si="5"/>
         <v>0.18000000000000016</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <f t="shared" si="6"/>
         <v>0.18000000000000016</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <f t="shared" si="7"/>
         <v>3.3306</v>
       </c>
-      <c r="I7" s="2">
-        <f>109824-100040</f>
-        <v>9784</v>
+      <c r="K7" s="2">
+        <f>(109824-100040)*0.00001</f>
+        <v>9.784000000000001E-2</v>
+      </c>
+      <c r="L7" s="2">
+        <f>B5*(5/G7-1)^(1/B3)</f>
+        <v>116.88451035768179</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:33" ht="29" x14ac:dyDescent="0.35">
+      <c r="C12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="J12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>-0.49059999999999998</v>
+      </c>
+      <c r="C13">
         <v>0</v>
       </c>
-      <c r="B13">
+      <c r="D13">
         <v>1</v>
       </c>
-      <c r="C13">
-        <f t="shared" ref="C13:C14" si="8">B13-A13</f>
+      <c r="E13">
+        <f t="shared" ref="E13:E14" si="8">D13-C13</f>
         <v>1</v>
       </c>
-      <c r="D13">
+      <c r="F13">
         <v>0.01</v>
       </c>
-      <c r="E13">
+      <c r="G13">
         <v>0.59</v>
       </c>
-      <c r="F13">
-        <f t="shared" ref="F13:F14" si="9">E13-D13</f>
+      <c r="H13">
+        <f t="shared" ref="H13:H14" si="9">G13-F13</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="G13" s="2">
-        <f t="shared" ref="G13:G14" si="10">F13/C13</f>
+      <c r="I13" s="2">
+        <f t="shared" ref="I13:I14" si="10">H13/E13</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="H13">
-        <f t="shared" ref="H13:H14" si="11">D13+0.67*F13</f>
+      <c r="J13">
+        <f t="shared" ref="J13:J14" si="11">F13+0.67*H13</f>
         <v>0.39860000000000001</v>
       </c>
-      <c r="I13" s="2">
-        <f>140912-100560</f>
-        <v>40352</v>
-      </c>
+      <c r="K13" s="2">
+        <f>(140912-100560)*0.00001</f>
+        <v>0.40352000000000005</v>
+      </c>
+      <c r="L13" s="2">
+        <f>B15*(5/G13-1)^(1/B13)</f>
+        <v>3.0809270755251719</v>
+      </c>
+      <c r="O13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>1.1133</v>
+      </c>
+      <c r="C14">
         <v>1</v>
       </c>
-      <c r="B14">
+      <c r="D14">
         <v>2</v>
       </c>
-      <c r="C14">
+      <c r="E14">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="D14">
+      <c r="F14">
         <v>0.51</v>
       </c>
-      <c r="E14">
+      <c r="G14">
         <v>1.03</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <f t="shared" si="9"/>
         <v>0.52</v>
       </c>
-      <c r="G14" s="2">
+      <c r="I14" s="2">
         <f t="shared" si="10"/>
         <v>0.52</v>
       </c>
-      <c r="H14">
+      <c r="J14">
         <f t="shared" si="11"/>
         <v>0.85840000000000005</v>
       </c>
-      <c r="I14" s="2">
-        <f>123376-100308</f>
-        <v>23068</v>
+      <c r="K14" s="2">
+        <f>(123376-100308)*0.00001</f>
+        <v>0.23068000000000002</v>
+      </c>
+      <c r="L14" s="2">
+        <f>B15*(5/G14-1)^(1/B13)</f>
+        <v>11.88420788784507</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>185.922</v>
+      </c>
+      <c r="C15">
         <v>2</v>
       </c>
-      <c r="B15">
+      <c r="D15">
         <v>3</v>
       </c>
-      <c r="C15">
-        <f>B15-A15</f>
+      <c r="E15">
+        <f>D15-C15</f>
         <v>1</v>
       </c>
-      <c r="D15">
+      <c r="F15">
         <v>0.93</v>
       </c>
-      <c r="E15">
+      <c r="G15">
         <v>1.36</v>
       </c>
-      <c r="F15">
-        <f>E15-D15</f>
+      <c r="H15">
+        <f>G15-F15</f>
         <v>0.43000000000000005</v>
       </c>
-      <c r="G15" s="2">
-        <f>F15/C15</f>
+      <c r="I15" s="2">
+        <f>H15/E15</f>
         <v>0.43000000000000005</v>
       </c>
-      <c r="H15">
-        <f>D15+0.67*F15</f>
+      <c r="J15">
+        <f>F15+0.67*H15</f>
         <v>1.2181000000000002</v>
       </c>
-      <c r="I15" s="2">
-        <f>118796-100416</f>
-        <v>18380</v>
+      <c r="K15" s="2">
+        <f>(118796-100416)*0.00001</f>
+        <v>0.18380000000000002</v>
+      </c>
+      <c r="L15" s="2">
+        <f>B15*(5/G15-1)^(1/B13)</f>
+        <v>24.993176528014306</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="C16">
         <v>3</v>
       </c>
-      <c r="B16">
+      <c r="D16">
         <v>4</v>
       </c>
-      <c r="C16">
-        <f t="shared" ref="C16:C17" si="12">B16-A16</f>
+      <c r="E16">
+        <f t="shared" ref="E16:E17" si="12">D16-C16</f>
         <v>1</v>
       </c>
-      <c r="D16">
+      <c r="F16">
         <v>1.28</v>
       </c>
-      <c r="E16">
+      <c r="G16">
         <v>1.64</v>
       </c>
-      <c r="F16">
-        <f t="shared" ref="F16:F17" si="13">E16-D16</f>
+      <c r="H16">
+        <f t="shared" ref="H16:H17" si="13">G16-F16</f>
         <v>0.35999999999999988</v>
       </c>
-      <c r="G16" s="2">
-        <f t="shared" ref="G16:G17" si="14">F16/C16</f>
+      <c r="I16" s="2">
+        <f t="shared" ref="I16:I17" si="14">H16/E16</f>
         <v>0.35999999999999988</v>
       </c>
-      <c r="H16">
-        <f t="shared" ref="H16:H17" si="15">D16+0.67*F16</f>
+      <c r="J16">
+        <f t="shared" ref="J16:J17" si="15">F16+0.67*H16</f>
         <v>1.5211999999999999</v>
       </c>
-      <c r="I16" s="2">
-        <f>117544-100656</f>
-        <v>16888</v>
+      <c r="K16" s="2">
+        <f>(117544-100656)*0.00001</f>
+        <v>0.16888</v>
+      </c>
+      <c r="L16" s="2">
+        <f>B15*(5/G16-1)^(1/B13)</f>
+        <v>43.092658424263689</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C17">
         <v>4</v>
       </c>
-      <c r="B17">
+      <c r="D17">
         <v>5</v>
       </c>
-      <c r="C17">
+      <c r="E17">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="D17">
+      <c r="F17">
         <v>1.55</v>
       </c>
-      <c r="E17">
+      <c r="G17">
         <v>1.85</v>
       </c>
-      <c r="F17">
+      <c r="H17">
         <f t="shared" si="13"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="G17" s="2">
+      <c r="I17" s="2">
         <f t="shared" si="14"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="H17">
+      <c r="J17">
         <f t="shared" si="15"/>
         <v>1.7510000000000001</v>
       </c>
-      <c r="I17" s="2">
-        <f>115660-100360</f>
-        <v>15300</v>
+      <c r="K17" s="2">
+        <f>(115660-100360)*0.00001</f>
+        <v>0.15300000000000002</v>
+      </c>
+      <c r="L17" s="2">
+        <f>B15*(5/G17-1)^(1/B13)</f>
+        <v>62.834157162840242</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Lab3/Medições do Sistema.xlsx
+++ b/Lab3/Medições do Sistema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loure\Dropbox\Lourenço\Faculdade\5A1S\SCDTR\SCDTR-Project\Lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F6F732-9522-4617-901C-B772ED097577}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55962CF5-B602-4658-BF4B-A6C876DE6D9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{94E0B860-0D7F-4EAE-AF2A-5E89F4BDE1C2}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>ui</t>
   </si>
@@ -87,6 +87,15 @@
   </si>
   <si>
     <t>aa</t>
+  </si>
+  <si>
+    <t>G0(x)</t>
+  </si>
+  <si>
+    <t>[LUX/V]</t>
+  </si>
+  <si>
+    <t>[V/V]</t>
   </si>
 </sst>
 </file>
@@ -198,7 +207,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>K0 vs illuminance - Arduino</a:t>
+              <a:t>G0 vs illuminance - Arduino</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -241,21 +250,10 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="0"/>
+          <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Folha1!$I$12:$I$13</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>K0(x)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.58</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>G0+Folha1!$J$13</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -271,21 +269,21 @@
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
                   <a:gs pos="0">
-                    <a:schemeClr val="accent2">
+                    <a:schemeClr val="accent1">
                       <a:satMod val="103000"/>
                       <a:lumMod val="102000"/>
                       <a:tint val="94000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="50000">
-                    <a:schemeClr val="accent2">
+                    <a:schemeClr val="accent1">
                       <a:satMod val="110000"/>
                       <a:lumMod val="100000"/>
                       <a:shade val="100000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="100000">
-                    <a:schemeClr val="accent2">
+                    <a:schemeClr val="accent1">
                       <a:lumMod val="99000"/>
                       <a:satMod val="120000"/>
                       <a:shade val="78000"/>
@@ -296,7 +294,7 @@
               </a:gradFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
@@ -307,20 +305,7 @@
             <c:spPr>
               <a:ln w="9525" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="9525" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -358,7 +343,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Folha1!$L$13:$L$17</c:f>
+              <c:f>Folha1!$M$13:$M$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -382,24 +367,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Folha1!$I$13:$I$17</c:f>
+              <c:f>Folha1!$J$13:$J$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.57999999999999996</c:v>
+                  <c:v>3.0809270755251719</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.52</c:v>
+                  <c:v>5.9421039439225352</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.43000000000000005</c:v>
+                  <c:v>8.3310588426714354</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.35999999999999988</c:v>
+                  <c:v>10.773164606065922</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.30000000000000004</c:v>
+                  <c:v>12.566831432568048</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -407,7 +392,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-224E-4F7D-BBC1-36963EE96A27}"/>
+              <c16:uniqueId val="{00000002-B20F-4E58-8211-ED407D8B7A78}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -421,145 +406,7 @@
         </c:dLbls>
         <c:axId val="429922280"/>
         <c:axId val="429923264"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Folha1!$L$12</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>x [Lux]</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="25400" cap="rnd">
-                    <a:noFill/>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:gradFill rotWithShape="1">
-                      <a:gsLst>
-                        <a:gs pos="0">
-                          <a:schemeClr val="accent1">
-                            <a:satMod val="103000"/>
-                            <a:lumMod val="102000"/>
-                            <a:tint val="94000"/>
-                          </a:schemeClr>
-                        </a:gs>
-                        <a:gs pos="50000">
-                          <a:schemeClr val="accent1">
-                            <a:satMod val="110000"/>
-                            <a:lumMod val="100000"/>
-                            <a:shade val="100000"/>
-                          </a:schemeClr>
-                        </a:gs>
-                        <a:gs pos="100000">
-                          <a:schemeClr val="accent1">
-                            <a:lumMod val="99000"/>
-                            <a:satMod val="120000"/>
-                            <a:shade val="78000"/>
-                          </a:schemeClr>
-                        </a:gs>
-                      </a:gsLst>
-                      <a:lin ang="5400000" scaled="0"/>
-                    </a:gradFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent1"/>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:xVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Folha1!$I$13:$I$17</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>0.57999999999999996</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0.52</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0.43000000000000005</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>0.35999999999999988</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>0.30000000000000004</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Folha1!$L$13:$L$17</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
-                      <c:pt idx="0">
-                        <c:v>3.0809270755251719</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>11.88420788784507</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>24.993176528014306</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>43.092658424263689</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>62.834157162840242</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-224E-4F7D-BBC1-36963EE96A27}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredScatterSeries>
-          </c:ext>
-        </c:extLst>
+        <c:extLst/>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="429922280"/>
@@ -716,7 +563,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="pt-PT"/>
-                  <a:t>K0</a:t>
+                  <a:t>G0</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -959,7 +806,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Folha1!$L$13:$L$17</c:f>
+              <c:f>Folha1!$M$13:$M$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -983,7 +830,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Folha1!$K$13:$K$17</c:f>
+              <c:f>Folha1!$L$13:$L$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1320,7 +1167,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>K0 vs illuminance - Arduino</a:t>
+              <a:t>G0 vs illuminance - Arduino</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -1366,7 +1213,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Illuminance</c:v>
+            <c:v>G0</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="9525" cap="rnd">
@@ -1416,9 +1263,55 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.8798277315920316E-3"/>
+                  <c:y val="-3.4342346561700855E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-PT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Folha1!$L$3:$L$7</c:f>
+              <c:f>Folha1!$M$3:$M$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1442,24 +1335,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Folha1!$I$3:$I$7</c:f>
+              <c:f>Folha1!$J$3:$J$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.75</c:v>
+                  <c:v>11.171804186829144</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.63000000000000012</c:v>
+                  <c:v>15.699758855364273</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.39000000000000012</c:v>
+                  <c:v>19.266432736054924</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.25</c:v>
+                  <c:v>21.481124767286019</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.18000000000000016</c:v>
+                  <c:v>23.376902071536357</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1467,7 +1360,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-C1B0-4EB7-959E-995A9F23EFB9}"/>
+              <c16:uniqueId val="{00000000-0F6C-46D0-9E5B-0DE4BF806D48}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1634,11 +1527,11 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="pt-PT" baseline="0"/>
-                  <a:t> Gain - </a:t>
+                  <a:t> Gain - G</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="pt-PT"/>
-                  <a:t>K0</a:t>
+                  <a:t>0</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1881,7 +1774,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Folha1!$L$3:$L$7</c:f>
+              <c:f>Folha1!$M$3:$M$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1905,7 +1798,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Folha1!$K$3:$K$7</c:f>
+              <c:f>Folha1!$L$3:$L$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4296,7 +4189,7 @@
       <xdr:rowOff>179821</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>496455</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>108816</xdr:rowOff>
@@ -4326,13 +4219,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>173182</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>155864</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>102177</xdr:rowOff>
@@ -4364,13 +4257,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>50512</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>379557</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>159905</xdr:rowOff>
@@ -4402,13 +4295,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>329045</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>159905</xdr:rowOff>
@@ -4738,32 +4631,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B17B447-7BE9-48E8-9D93-BEADF7CA1324}">
-  <dimension ref="A1:AG37"/>
+  <dimension ref="A1:AH37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="S21" sqref="S21"/>
+    <sheetView tabSelected="1" topLeftCell="I3" zoomScale="106" workbookViewId="0">
+      <selection activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4.08984375" customWidth="1"/>
-    <col min="8" max="8" width="8.7265625" customWidth="1"/>
-    <col min="10" max="10" width="13" style="2" customWidth="1"/>
-    <col min="12" max="12" width="11.1796875" style="2" customWidth="1"/>
+    <col min="8" max="10" width="8.7265625" customWidth="1"/>
+    <col min="11" max="11" width="13" style="2" customWidth="1"/>
+    <col min="13" max="13" width="11.1796875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="1" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:34" s="1" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
@@ -4785,17 +4684,20 @@
       <c r="I2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -4826,20 +4728,24 @@
         <f t="shared" ref="I3:I4" si="2">H3/E3</f>
         <v>1.75</v>
       </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J4" si="3">F3+0.67*H3</f>
+      <c r="J3" s="2">
+        <f>M3/D3</f>
+        <v>11.171804186829144</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K4" si="3">F3+0.67*H3</f>
         <v>1.4125000000000001</v>
       </c>
-      <c r="K3" s="2">
+      <c r="L3" s="2">
         <f>(117168-100376)*0.00001</f>
         <v>0.16792000000000001</v>
       </c>
-      <c r="L3" s="2">
+      <c r="M3" s="2">
         <f>B5*(5/G3-1)^(1/B3)</f>
         <v>11.171804186829144</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -4870,20 +4776,24 @@
         <f t="shared" si="2"/>
         <v>0.63000000000000012</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="2">
+        <f>M4/D4</f>
+        <v>15.699758855364273</v>
+      </c>
+      <c r="K4">
         <f t="shared" si="3"/>
         <v>2.4121000000000001</v>
       </c>
-      <c r="K4" s="2">
+      <c r="L4" s="2">
         <f>(114272-100576)*0.00001</f>
         <v>0.13696</v>
       </c>
-      <c r="L4" s="2">
+      <c r="M4" s="2">
         <f>B5*(5/G4-1)^(1/B3)</f>
         <v>31.399517710728546</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -4914,20 +4824,24 @@
         <f>H5/E5</f>
         <v>0.39000000000000012</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="2">
+        <f>M5/D5</f>
+        <v>19.266432736054924</v>
+      </c>
+      <c r="K5">
         <f>F5+0.67*H5</f>
         <v>2.8613</v>
       </c>
-      <c r="K5" s="2">
+      <c r="L5" s="2">
         <f>(112016-100696)*0.00001</f>
         <v>0.11320000000000001</v>
       </c>
-      <c r="L5" s="2">
+      <c r="M5" s="2">
         <f>B5*(5/G5-1)^(1/B3)</f>
         <v>57.799298208164771</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
       <c r="C6">
         <v>3</v>
       </c>
@@ -4952,20 +4866,24 @@
         <f t="shared" ref="I6:I7" si="6">H6/E6</f>
         <v>0.25</v>
       </c>
-      <c r="J6">
-        <f t="shared" ref="J6:J7" si="7">F6+0.67*H6</f>
+      <c r="J6" s="2">
+        <f>M6/D6</f>
+        <v>21.481124767286019</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ref="K6:K7" si="7">F6+0.67*H6</f>
         <v>3.1375000000000002</v>
       </c>
-      <c r="K6" s="2">
+      <c r="L6" s="2">
         <f>(111208-100736)*0.00001</f>
         <v>0.10472000000000001</v>
       </c>
-      <c r="L6" s="2">
+      <c r="M6" s="2">
         <f>B5*(5/G6-1)^(1/B3)</f>
         <v>85.924499069144076</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
       <c r="C7">
         <v>4</v>
       </c>
@@ -4990,25 +4908,29 @@
         <f t="shared" si="6"/>
         <v>0.18000000000000016</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="2">
+        <f>M7/D7</f>
+        <v>23.376902071536357</v>
+      </c>
+      <c r="K7">
         <f t="shared" si="7"/>
         <v>3.3306</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <f>(109824-100040)*0.00001</f>
         <v>9.784000000000001E-2</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <f>B5*(5/G7-1)^(1/B3)</f>
         <v>116.88451035768179</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:33" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:34" ht="29" x14ac:dyDescent="0.35">
       <c r="C12" s="3" t="s">
         <v>0</v>
       </c>
@@ -5030,17 +4952,20 @@
       <c r="I12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="L12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="M12" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -5071,21 +4996,25 @@
         <f t="shared" ref="I13:I14" si="10">H13/E13</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="J13">
-        <f t="shared" ref="J13:J14" si="11">F13+0.67*H13</f>
+      <c r="J13" s="2">
+        <f>M13/D13</f>
+        <v>3.0809270755251719</v>
+      </c>
+      <c r="K13">
+        <f t="shared" ref="K13:K14" si="11">F13+0.67*H13</f>
         <v>0.39860000000000001</v>
       </c>
-      <c r="K13" s="2">
+      <c r="L13" s="2">
         <f>(140912-100560)*0.00001</f>
         <v>0.40352000000000005</v>
       </c>
-      <c r="L13" s="2">
+      <c r="M13" s="2">
         <f>B15*(5/G13-1)^(1/B13)</f>
         <v>3.0809270755251719</v>
       </c>
-      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -5116,20 +5045,24 @@
         <f t="shared" si="10"/>
         <v>0.52</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="2">
+        <f t="shared" ref="J14:J17" si="12">M14/D14</f>
+        <v>5.9421039439225352</v>
+      </c>
+      <c r="K14">
         <f t="shared" si="11"/>
         <v>0.85840000000000005</v>
       </c>
-      <c r="K14" s="2">
+      <c r="L14" s="2">
         <f>(123376-100308)*0.00001</f>
         <v>0.23068000000000002</v>
       </c>
-      <c r="L14" s="2">
+      <c r="M14" s="2">
         <f>B15*(5/G14-1)^(1/B13)</f>
         <v>11.88420788784507</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -5160,20 +5093,24 @@
         <f>H15/E15</f>
         <v>0.43000000000000005</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="2">
+        <f t="shared" si="12"/>
+        <v>8.3310588426714354</v>
+      </c>
+      <c r="K15">
         <f>F15+0.67*H15</f>
         <v>1.2181000000000002</v>
       </c>
-      <c r="K15" s="2">
+      <c r="L15" s="2">
         <f>(118796-100416)*0.00001</f>
         <v>0.18380000000000002</v>
       </c>
-      <c r="L15" s="2">
+      <c r="M15" s="2">
         <f>B15*(5/G15-1)^(1/B13)</f>
         <v>24.993176528014306</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
       <c r="C16">
         <v>3</v>
       </c>
@@ -5181,7 +5118,7 @@
         <v>4</v>
       </c>
       <c r="E16">
-        <f t="shared" ref="E16:E17" si="12">D16-C16</f>
+        <f t="shared" ref="E16:E17" si="13">D16-C16</f>
         <v>1</v>
       </c>
       <c r="F16">
@@ -5191,27 +5128,31 @@
         <v>1.64</v>
       </c>
       <c r="H16">
-        <f t="shared" ref="H16:H17" si="13">G16-F16</f>
+        <f t="shared" ref="H16:H17" si="14">G16-F16</f>
         <v>0.35999999999999988</v>
       </c>
       <c r="I16" s="2">
-        <f t="shared" ref="I16:I17" si="14">H16/E16</f>
+        <f t="shared" ref="I16:I17" si="15">H16/E16</f>
         <v>0.35999999999999988</v>
       </c>
-      <c r="J16">
-        <f t="shared" ref="J16:J17" si="15">F16+0.67*H16</f>
+      <c r="J16" s="2">
+        <f t="shared" si="12"/>
+        <v>10.773164606065922</v>
+      </c>
+      <c r="K16">
+        <f t="shared" ref="K16:K17" si="16">F16+0.67*H16</f>
         <v>1.5211999999999999</v>
       </c>
-      <c r="K16" s="2">
+      <c r="L16" s="2">
         <f>(117544-100656)*0.00001</f>
         <v>0.16888</v>
       </c>
-      <c r="L16" s="2">
+      <c r="M16" s="2">
         <f>B15*(5/G16-1)^(1/B13)</f>
         <v>43.092658424263689</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C17">
         <v>4</v>
       </c>
@@ -5219,7 +5160,7 @@
         <v>5</v>
       </c>
       <c r="E17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="F17">
@@ -5229,22 +5170,26 @@
         <v>1.85</v>
       </c>
       <c r="H17">
-        <f t="shared" si="13"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="I17" s="2">
         <f t="shared" si="14"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="J17">
+      <c r="I17" s="2">
         <f t="shared" si="15"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" si="12"/>
+        <v>12.566831432568048</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="16"/>
         <v>1.7510000000000001</v>
       </c>
-      <c r="K17" s="2">
+      <c r="L17" s="2">
         <f>(115660-100360)*0.00001</f>
         <v>0.15300000000000002</v>
       </c>
-      <c r="L17" s="2">
+      <c r="M17" s="2">
         <f>B15*(5/G17-1)^(1/B13)</f>
         <v>62.834157162840242</v>
       </c>

--- a/Lab3/Medições do Sistema.xlsx
+++ b/Lab3/Medições do Sistema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loure\Dropbox\Lourenço\Faculdade\5A1S\SCDTR\SCDTR-Project\Lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55962CF5-B602-4658-BF4B-A6C876DE6D9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC31F07D-B188-4D4A-9FE2-792DAD7530D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{94E0B860-0D7F-4EAE-AF2A-5E89F4BDE1C2}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="22">
   <si>
     <t>ui</t>
   </si>
@@ -71,9 +71,6 @@
     <t>C</t>
   </si>
   <si>
-    <t>tau(x) [us]</t>
-  </si>
-  <si>
     <t>x = 10^(-b/m)*(Vcc/Vi - 1)^(1/m)</t>
   </si>
   <si>
@@ -96,6 +93,9 @@
   </si>
   <si>
     <t>[V/V]</t>
+  </si>
+  <si>
+    <t>K0</t>
   </si>
 </sst>
 </file>
@@ -139,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -158,6 +158,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -253,7 +256,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>G0+Folha1!$J$13</c:v>
+            <c:v>G0</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -343,48 +346,66 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Folha1!$M$13:$M$17</c:f>
+              <c:f>Folha1!$M$14:$M$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>3.0809270755251719</c:v>
+                  <c:v>2.845427978671764</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.88420788784507</c:v>
+                  <c:v>9.6769026433156533</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.993176528014306</c:v>
+                  <c:v>21.586467524230663</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43.092658424263689</c:v>
+                  <c:v>34.361668812879849</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>62.834157162840242</c:v>
+                  <c:v>51.706520315048927</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>69.738798253763875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>110.01745965519456</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>157.93357687038579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Folha1!$J$13:$J$17</c:f>
+              <c:f>Folha1!$J$14:$J$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>3.0809270755251719</c:v>
+                  <c:v>5.690855957343528</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.9421039439225352</c:v>
+                  <c:v>9.6769026433156533</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.3310588426714354</c:v>
+                  <c:v>14.390978349487108</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.773164606065922</c:v>
+                  <c:v>17.180834406439924</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.566831432568048</c:v>
+                  <c:v>20.68260812601957</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.246266084587958</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27.504364913798639</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31.586715374077158</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -708,7 +729,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Tau vs illuminance - Arduino</a:t>
+              <a:t>Time constant vs Final illuminance - Arduino</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -806,48 +827,66 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Folha1!$M$13:$M$17</c:f>
+              <c:f>Folha1!$M$14:$M$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>3.0809270755251719</c:v>
+                  <c:v>2.845427978671764</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.88420788784507</c:v>
+                  <c:v>9.6769026433156533</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.993176528014306</c:v>
+                  <c:v>21.586467524230663</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43.092658424263689</c:v>
+                  <c:v>34.361668812879849</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>62.834157162840242</c:v>
+                  <c:v>51.706520315048927</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>69.738798253763875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>110.01745965519456</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>157.93357687038579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Folha1!$L$13:$L$17</c:f>
+              <c:f>Folha1!$L$14:$L$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.40352000000000005</c:v>
+                  <c:v>4.9007999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.23068000000000002</c:v>
+                  <c:v>2.2291999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.18380000000000002</c:v>
+                  <c:v>2.23E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.16888</c:v>
+                  <c:v>2.0063999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.15300000000000002</c:v>
+                  <c:v>2.0115999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6927999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2895999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0544E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1311,48 +1350,66 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Folha1!$M$3:$M$7</c:f>
+              <c:f>Folha1!$M$3:$M$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>11.171804186829144</c:v>
+                  <c:v>15.33846920899348</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31.399517710728546</c:v>
+                  <c:v>43.544577891670087</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>57.799298208164771</c:v>
+                  <c:v>78.69695254321779</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>85.924499069144076</c:v>
+                  <c:v>119.07862208406932</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>116.88451035768179</c:v>
+                  <c:v>158.66531180877584</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>206.45162336507025</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>313.27532879859501</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>408.07738508580343</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Folha1!$J$3:$J$7</c:f>
+              <c:f>Folha1!$J$3:$J$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>11.171804186829144</c:v>
+                  <c:v>30.67693841798696</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.699758855364273</c:v>
+                  <c:v>43.544577891670087</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.266432736054924</c:v>
+                  <c:v>52.464635028811863</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.481124767286019</c:v>
+                  <c:v>59.539311042034662</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.376902071536357</c:v>
+                  <c:v>63.466124723510333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>68.817207788356754</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>78.318832199648753</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>81.615477017160686</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1722,7 +1779,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>tau1+Folha1!$L$3:$L$7</c:v>
+            <c:v>tau1</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="9525" cap="rnd">
@@ -1774,48 +1831,66 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Folha1!$M$3:$M$7</c:f>
+              <c:f>Folha1!$M$3:$M$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>11.171804186829144</c:v>
+                  <c:v>15.33846920899348</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31.399517710728546</c:v>
+                  <c:v>43.544577891670087</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>57.799298208164771</c:v>
+                  <c:v>78.69695254321779</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>85.924499069144076</c:v>
+                  <c:v>119.07862208406932</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>116.88451035768179</c:v>
+                  <c:v>158.66531180877584</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>206.45162336507025</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>313.27532879859501</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>408.07738508580343</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Folha1!$L$3:$L$7</c:f>
+              <c:f>Folha1!$L$3:$L$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.16792000000000001</c:v>
+                  <c:v>1.7564E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.13696</c:v>
+                  <c:v>1.2144E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.11320000000000001</c:v>
+                  <c:v>1.0511999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.10472000000000001</c:v>
+                  <c:v>1.0567999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.784000000000001E-2</c:v>
+                  <c:v>8.9639999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.1519999999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.3479999999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.5680000000000001E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4184,15 +4259,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>167409</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>179821</xdr:rowOff>
+      <xdr:colOff>467747</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>171240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>496455</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>108816</xdr:rowOff>
+      <xdr:colOff>796793</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>100235</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4220,15 +4295,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>173182</xdr:rowOff>
+      <xdr:colOff>214527</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>104533</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>155864</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>102177</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>248047</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>29765</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4265,8 +4340,8 @@
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>379557</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>159905</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19843</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4303,8 +4378,8 @@
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>329045</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>159905</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>138906</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4631,16 +4706,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B17B447-7BE9-48E8-9D93-BEADF7CA1324}">
-  <dimension ref="A1:AH37"/>
+  <dimension ref="A1:AH29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I3" zoomScale="106" workbookViewId="0">
-      <selection activeCell="V19" sqref="V19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="61" workbookViewId="0">
+      <selection activeCell="Y29" sqref="Y29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4.08984375" customWidth="1"/>
-    <col min="8" max="10" width="8.7265625" customWidth="1"/>
+    <col min="8" max="8" width="8.7265625" customWidth="1"/>
+    <col min="9" max="9" width="8.7265625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="8.7265625" customWidth="1"/>
     <col min="11" max="11" width="13" style="2" customWidth="1"/>
     <col min="13" max="13" width="11.1796875" style="2" customWidth="1"/>
   </cols>
@@ -4649,17 +4726,17 @@
       <c r="A1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
-        <v>21</v>
+      <c r="I1" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="J1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="1" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4682,19 +4759,19 @@
         <v>5</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="L2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.35">
@@ -4708,41 +4785,41 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E4" si="0">D3-C3</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F3">
-        <v>0.24</v>
+        <v>0.09</v>
       </c>
       <c r="G3">
-        <v>1.99</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H4" si="1">G3-F3</f>
-        <v>1.75</v>
+        <v>2.0900000000000003</v>
       </c>
       <c r="I3" s="2">
         <f t="shared" ref="I3:I4" si="2">H3/E3</f>
-        <v>1.75</v>
+        <v>4.1800000000000006</v>
       </c>
       <c r="J3" s="2">
         <f>M3/D3</f>
-        <v>11.171804186829144</v>
+        <v>30.67693841798696</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K4" si="3">F3+0.67*H3</f>
-        <v>1.4125000000000001</v>
+        <v>1.4903000000000004</v>
       </c>
       <c r="L3" s="2">
-        <f>(117168-100376)*0.00001</f>
-        <v>0.16792000000000001</v>
+        <f>(118268-100704)*0.000001</f>
+        <v>1.7564E-2</v>
       </c>
       <c r="M3" s="2">
         <f>B5*(5/G3-1)^(1/B3)</f>
-        <v>11.171804186829144</v>
+        <v>15.33846920899348</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.35">
@@ -4753,44 +4830,44 @@
         <v>0.2661</v>
       </c>
       <c r="C4">
+        <v>0.5</v>
+      </c>
+      <c r="D4">
         <v>1</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F4">
-        <v>1.99</v>
+        <v>2.19</v>
       </c>
       <c r="G4">
-        <v>2.62</v>
+        <v>2.82</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
-        <v>0.63000000000000012</v>
+        <v>0.62999999999999989</v>
       </c>
       <c r="I4" s="2">
         <f t="shared" si="2"/>
-        <v>0.63000000000000012</v>
+        <v>1.2599999999999998</v>
       </c>
       <c r="J4" s="2">
         <f>M4/D4</f>
-        <v>15.699758855364273</v>
+        <v>43.544577891670087</v>
       </c>
       <c r="K4">
         <f t="shared" si="3"/>
-        <v>2.4121000000000001</v>
+        <v>2.6120999999999999</v>
       </c>
       <c r="L4" s="2">
-        <f>(114272-100576)*0.00001</f>
-        <v>0.13696</v>
+        <f>(112632-100488)*0.000001</f>
+        <v>1.2144E-2</v>
       </c>
       <c r="M4" s="2">
         <f>B5*(5/G4-1)^(1/B3)</f>
-        <v>31.399517710728546</v>
+        <v>43.544577891670087</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.35">
@@ -4801,402 +4878,654 @@
         <v>25.843900000000001</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="E5">
         <f>D5-C5</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F5">
-        <v>2.6</v>
+        <v>2.82</v>
       </c>
       <c r="G5">
-        <v>2.99</v>
+        <v>3.17</v>
       </c>
       <c r="H5">
         <f>G5-F5</f>
-        <v>0.39000000000000012</v>
+        <v>0.35000000000000009</v>
       </c>
       <c r="I5" s="2">
         <f>H5/E5</f>
-        <v>0.39000000000000012</v>
+        <v>0.70000000000000018</v>
       </c>
       <c r="J5" s="2">
         <f>M5/D5</f>
-        <v>19.266432736054924</v>
+        <v>52.464635028811863</v>
       </c>
       <c r="K5">
         <f>F5+0.67*H5</f>
-        <v>2.8613</v>
+        <v>3.0545</v>
       </c>
       <c r="L5" s="2">
-        <f>(112016-100696)*0.00001</f>
-        <v>0.11320000000000001</v>
+        <f>(110520-100008)*0.000001</f>
+        <v>1.0511999999999999E-2</v>
       </c>
       <c r="M5" s="2">
         <f>B5*(5/G5-1)^(1/B3)</f>
-        <v>57.799298208164771</v>
+        <v>78.69695254321779</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.35">
       <c r="C6">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6:E7" si="4">D6-C6</f>
-        <v>1</v>
+        <f t="shared" ref="E6:E10" si="4">D6-C6</f>
+        <v>0.5</v>
       </c>
       <c r="F6">
-        <v>2.97</v>
+        <v>3.15</v>
       </c>
       <c r="G6">
-        <v>3.22</v>
+        <v>3.4</v>
       </c>
       <c r="H6">
-        <f t="shared" ref="H6:H7" si="5">G6-F6</f>
+        <f t="shared" ref="H6:H10" si="5">G6-F6</f>
         <v>0.25</v>
       </c>
       <c r="I6" s="2">
-        <f t="shared" ref="I6:I7" si="6">H6/E6</f>
-        <v>0.25</v>
+        <f t="shared" ref="I6:I10" si="6">H6/E6</f>
+        <v>0.5</v>
       </c>
       <c r="J6" s="2">
         <f>M6/D6</f>
-        <v>21.481124767286019</v>
+        <v>59.539311042034662</v>
       </c>
       <c r="K6">
-        <f t="shared" ref="K6:K7" si="7">F6+0.67*H6</f>
-        <v>3.1375000000000002</v>
+        <f t="shared" ref="K6:K10" si="7">F6+0.67*H6</f>
+        <v>3.3174999999999999</v>
       </c>
       <c r="L6" s="2">
-        <f>(111208-100736)*0.00001</f>
-        <v>0.10472000000000001</v>
+        <f>(110672-100104)*0.000001</f>
+        <v>1.0567999999999999E-2</v>
       </c>
       <c r="M6" s="2">
         <f>B5*(5/G6-1)^(1/B3)</f>
-        <v>85.924499069144076</v>
+        <v>119.07862208406932</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.35">
       <c r="C7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="E7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F7">
-        <v>3.21</v>
+        <v>3.37</v>
       </c>
       <c r="G7">
-        <v>3.39</v>
+        <v>3.55</v>
       </c>
       <c r="H7">
         <f t="shared" si="5"/>
-        <v>0.18000000000000016</v>
+        <v>0.17999999999999972</v>
       </c>
       <c r="I7" s="2">
         <f t="shared" si="6"/>
-        <v>0.18000000000000016</v>
+        <v>0.35999999999999943</v>
       </c>
       <c r="J7" s="2">
         <f>M7/D7</f>
-        <v>23.376902071536357</v>
+        <v>63.466124723510333</v>
       </c>
       <c r="K7">
         <f t="shared" si="7"/>
-        <v>3.3306</v>
+        <v>3.4905999999999997</v>
       </c>
       <c r="L7" s="2">
-        <f>(109824-100040)*0.00001</f>
-        <v>9.784000000000001E-2</v>
+        <f>(109116-100152)*0.000001</f>
+        <v>8.9639999999999997E-3</v>
       </c>
       <c r="M7" s="2">
         <f>B5*(5/G7-1)^(1/B3)</f>
-        <v>116.88451035768179</v>
+        <v>158.66531180877584</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="C8">
+        <v>2.5</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="F8">
+        <v>3.53</v>
+      </c>
+      <c r="G8">
+        <v>3.68</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="5"/>
+        <v>0.15000000000000036</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="6"/>
+        <v>0.30000000000000071</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" ref="J8:J10" si="8">M8/D8</f>
+        <v>68.817207788356754</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="7"/>
+        <v>3.6305000000000001</v>
+      </c>
+      <c r="L8" s="2">
+        <f>(108208-100056)*10^-6</f>
+        <v>8.1519999999999995E-3</v>
+      </c>
+      <c r="M8" s="2">
+        <f>B5*(5/G8-1)^(1/B3)</f>
+        <v>206.45162336507025</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>3.69</v>
+      </c>
+      <c r="G9">
+        <v>3.87</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="5"/>
+        <v>0.18000000000000016</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="6"/>
+        <v>0.18000000000000016</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="8"/>
+        <v>78.318832199648753</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="7"/>
+        <v>3.8106</v>
+      </c>
+      <c r="L9" s="2">
+        <f>(107376-100028)*10^-6</f>
+        <v>7.3479999999999995E-3</v>
+      </c>
+      <c r="M9" s="2">
+        <f>B5*(5/G9-1)^(1/B3)</f>
+        <v>313.27532879859501</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>3.86</v>
+      </c>
+      <c r="G10">
+        <v>3.98</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="5"/>
+        <v>0.12000000000000011</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="6"/>
+        <v>0.12000000000000011</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="8"/>
+        <v>81.615477017160686</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="7"/>
+        <v>3.9403999999999999</v>
+      </c>
+      <c r="L10" s="2">
+        <f>(106640-100072)*10^-6</f>
+        <v>6.5680000000000001E-3</v>
+      </c>
+      <c r="M10" s="2">
+        <f>B5*(5/G10-1)^(1/B3)</f>
+        <v>408.07738508580343</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:34" ht="29" x14ac:dyDescent="0.35">
-      <c r="C12" s="3" t="s">
+    <row r="13" spans="1:34" ht="29" x14ac:dyDescent="0.35">
+      <c r="C13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I13" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="3" t="s">
+      <c r="J13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M12" s="5" t="s">
+      <c r="L13" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13">
-        <v>-0.49059999999999998</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <f t="shared" ref="E13:E14" si="8">D13-C13</f>
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.01</v>
-      </c>
-      <c r="G13">
-        <v>0.59</v>
-      </c>
-      <c r="H13">
-        <f t="shared" ref="H13:H14" si="9">G13-F13</f>
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="I13" s="2">
-        <f t="shared" ref="I13:I14" si="10">H13/E13</f>
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="J13" s="2">
-        <f>M13/D13</f>
-        <v>3.0809270755251719</v>
-      </c>
-      <c r="K13">
-        <f t="shared" ref="K13:K14" si="11">F13+0.67*H13</f>
-        <v>0.39860000000000001</v>
-      </c>
-      <c r="L13" s="2">
-        <f>(140912-100560)*0.00001</f>
-        <v>0.40352000000000005</v>
-      </c>
-      <c r="M13" s="2">
-        <f>B15*(5/G13-1)^(1/B13)</f>
-        <v>3.0809270755251719</v>
-      </c>
-      <c r="P13" s="7"/>
+      <c r="M13" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14">
-        <v>1.1133</v>
+        <v>-0.49059999999999998</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="E14">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" ref="E14:E15" si="9">D14-C14</f>
+        <v>0.5</v>
       </c>
       <c r="F14">
-        <v>0.51</v>
+        <v>0.03</v>
       </c>
       <c r="G14">
-        <v>1.03</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="H14">
-        <f t="shared" si="9"/>
-        <v>0.52</v>
-      </c>
-      <c r="I14" s="2">
-        <f t="shared" si="10"/>
-        <v>0.52</v>
+        <f t="shared" ref="H14:H15" si="10">G14-F14</f>
+        <v>0.53999999999999992</v>
+      </c>
+      <c r="I14" s="7">
+        <f t="shared" ref="I14:I15" si="11">H14/E14</f>
+        <v>1.0799999999999998</v>
       </c>
       <c r="J14" s="2">
-        <f t="shared" ref="J14:J17" si="12">M14/D14</f>
-        <v>5.9421039439225352</v>
+        <f>M14/D14</f>
+        <v>5.690855957343528</v>
       </c>
       <c r="K14">
-        <f t="shared" si="11"/>
-        <v>0.85840000000000005</v>
+        <f t="shared" ref="K14:K15" si="12">F14+0.67*H14</f>
+        <v>0.39179999999999993</v>
       </c>
       <c r="L14" s="2">
-        <f>(123376-100308)*0.00001</f>
-        <v>0.23068000000000002</v>
+        <f>(149104-100096)*0.000001</f>
+        <v>4.9007999999999996E-2</v>
       </c>
       <c r="M14" s="2">
-        <f>B15*(5/G14-1)^(1/B13)</f>
-        <v>11.88420788784507</v>
-      </c>
+        <f>B16*(5/G14-1)^(1/B14)</f>
+        <v>2.845427978671764</v>
+      </c>
+      <c r="P14" s="7"/>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15">
-        <v>185.922</v>
+        <v>1.1133</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <f>D15-C15</f>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>0.5</v>
       </c>
       <c r="F15">
-        <v>0.93</v>
+        <v>0.52</v>
       </c>
       <c r="G15">
-        <v>1.36</v>
+        <v>0.95</v>
       </c>
       <c r="H15">
-        <f>G15-F15</f>
-        <v>0.43000000000000005</v>
-      </c>
-      <c r="I15" s="2">
-        <f>H15/E15</f>
-        <v>0.43000000000000005</v>
+        <f t="shared" si="10"/>
+        <v>0.42999999999999994</v>
+      </c>
+      <c r="I15" s="7">
+        <f t="shared" si="11"/>
+        <v>0.85999999999999988</v>
       </c>
       <c r="J15" s="2">
+        <f t="shared" ref="J15:J21" si="13">M15/D15</f>
+        <v>9.6769026433156533</v>
+      </c>
+      <c r="K15">
         <f t="shared" si="12"/>
-        <v>8.3310588426714354</v>
-      </c>
-      <c r="K15">
-        <f>F15+0.67*H15</f>
-        <v>1.2181000000000002</v>
+        <v>0.80810000000000004</v>
       </c>
       <c r="L15" s="2">
-        <f>(118796-100416)*0.00001</f>
-        <v>0.18380000000000002</v>
+        <f>(122632-100340)*0.000001</f>
+        <v>2.2291999999999999E-2</v>
       </c>
       <c r="M15" s="2">
-        <f>B15*(5/G15-1)^(1/B13)</f>
-        <v>24.993176528014306</v>
+        <f>B16*(5/G15-1)^(1/B14)</f>
+        <v>9.6769026433156533</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>185.922</v>
+      </c>
       <c r="C16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="E16">
-        <f t="shared" ref="E16:E17" si="13">D16-C16</f>
-        <v>1</v>
+        <f>D16-C16</f>
+        <v>0.5</v>
       </c>
       <c r="F16">
-        <v>1.28</v>
+        <v>0.87</v>
       </c>
       <c r="G16">
-        <v>1.64</v>
+        <v>1.29</v>
       </c>
       <c r="H16">
-        <f t="shared" ref="H16:H17" si="14">G16-F16</f>
-        <v>0.35999999999999988</v>
-      </c>
-      <c r="I16" s="2">
-        <f t="shared" ref="I16:I17" si="15">H16/E16</f>
-        <v>0.35999999999999988</v>
+        <f>G16-F16</f>
+        <v>0.42000000000000004</v>
+      </c>
+      <c r="I16" s="7">
+        <f>H16/E16</f>
+        <v>0.84000000000000008</v>
       </c>
       <c r="J16" s="2">
-        <f t="shared" si="12"/>
-        <v>10.773164606065922</v>
+        <f t="shared" si="13"/>
+        <v>14.390978349487108</v>
       </c>
       <c r="K16">
-        <f t="shared" ref="K16:K17" si="16">F16+0.67*H16</f>
-        <v>1.5211999999999999</v>
+        <f>F16+0.67*H16</f>
+        <v>1.1514</v>
       </c>
       <c r="L16" s="2">
-        <f>(117544-100656)*0.00001</f>
-        <v>0.16888</v>
+        <f>(122756-100456)*0.000001</f>
+        <v>2.23E-2</v>
       </c>
       <c r="M16" s="2">
-        <f>B15*(5/G16-1)^(1/B13)</f>
-        <v>43.092658424263689</v>
+        <f>B16*(5/G16-1)^(1/B14)</f>
+        <v>21.586467524230663</v>
       </c>
     </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C17">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="D17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E17">
+        <f t="shared" ref="E17:E21" si="14">D17-C17</f>
+        <v>0.5</v>
+      </c>
+      <c r="F17">
+        <v>1.19</v>
+      </c>
+      <c r="G17">
+        <v>1.52</v>
+      </c>
+      <c r="H17">
+        <f t="shared" ref="H17:H21" si="15">G17-F17</f>
+        <v>0.33000000000000007</v>
+      </c>
+      <c r="I17" s="7">
+        <f t="shared" ref="I17:I21" si="16">H17/E17</f>
+        <v>0.66000000000000014</v>
+      </c>
+      <c r="J17" s="2">
         <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1.55</v>
-      </c>
-      <c r="G17">
-        <v>1.85</v>
-      </c>
-      <c r="H17">
+        <v>17.180834406439924</v>
+      </c>
+      <c r="K17">
+        <f t="shared" ref="K17:K21" si="17">F17+0.67*H17</f>
+        <v>1.4111</v>
+      </c>
+      <c r="L17" s="2">
+        <f>(120656-100592)*0.000001</f>
+        <v>2.0063999999999999E-2</v>
+      </c>
+      <c r="M17" s="2">
+        <f>B16*(5/G17-1)^(1/B14)</f>
+        <v>34.361668812879849</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>2.5</v>
+      </c>
+      <c r="E18">
         <f t="shared" si="14"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="I17" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F18">
+        <v>1.44</v>
+      </c>
+      <c r="G18">
+        <v>1.74</v>
+      </c>
+      <c r="H18">
         <f t="shared" si="15"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="J17" s="2">
-        <f t="shared" si="12"/>
-        <v>12.566831432568048</v>
-      </c>
-      <c r="K17">
+      <c r="I18" s="7">
         <f t="shared" si="16"/>
-        <v>1.7510000000000001</v>
-      </c>
-      <c r="L17" s="2">
-        <f>(115660-100360)*0.00001</f>
-        <v>0.15300000000000002</v>
-      </c>
-      <c r="M17" s="2">
-        <f>B15*(5/G17-1)^(1/B13)</f>
-        <v>62.834157162840242</v>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="shared" si="13"/>
+        <v>20.68260812601957</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="17"/>
+        <v>1.641</v>
+      </c>
+      <c r="L18" s="2">
+        <f>(120432-100316)*0.000001</f>
+        <v>2.0115999999999998E-2</v>
+      </c>
+      <c r="M18" s="2">
+        <f>B16*(5/G18-1)^(1/B14)</f>
+        <v>51.706520315048927</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>18</v>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C19">
+        <v>2.5</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="14"/>
+        <v>0.5</v>
+      </c>
+      <c r="F19">
+        <v>1.65</v>
+      </c>
+      <c r="G19">
+        <v>1.91</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="15"/>
+        <v>0.26</v>
+      </c>
+      <c r="I19" s="7">
+        <f t="shared" si="16"/>
+        <v>0.52</v>
+      </c>
+      <c r="J19" s="2">
+        <f t="shared" si="13"/>
+        <v>23.246266084587958</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="17"/>
+        <v>1.8241999999999998</v>
+      </c>
+      <c r="L19" s="2">
+        <f>(117352-100424)*0.000001</f>
+        <v>1.6927999999999999E-2</v>
+      </c>
+      <c r="M19" s="2">
+        <f>B16*(5/G19-1)^(1/B14)</f>
+        <v>69.738798253763875</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1.83</v>
+      </c>
+      <c r="G20">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="15"/>
+        <v>0.35000000000000009</v>
+      </c>
+      <c r="I20" s="7">
+        <f t="shared" si="16"/>
+        <v>0.35000000000000009</v>
+      </c>
+      <c r="J20" s="2">
+        <f t="shared" si="13"/>
+        <v>27.504364913798639</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="17"/>
+        <v>2.0645000000000002</v>
+      </c>
+      <c r="L20" s="2">
+        <f>(113392-100496)*0.000001</f>
+        <v>1.2895999999999999E-2</v>
+      </c>
+      <c r="M20" s="2">
+        <f>B16*(5/G20-1)^(1/B14)</f>
+        <v>110.01745965519456</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>2.12</v>
+      </c>
+      <c r="G21">
+        <v>2.4</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="15"/>
+        <v>0.2799999999999998</v>
+      </c>
+      <c r="I21" s="7">
+        <f t="shared" si="16"/>
+        <v>0.2799999999999998</v>
+      </c>
+      <c r="J21" s="2">
+        <f t="shared" si="13"/>
+        <v>31.586715374077158</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="17"/>
+        <v>2.3075999999999999</v>
+      </c>
+      <c r="L21" s="2">
+        <f>(110944-100400)*0.000001</f>
+        <v>1.0544E-2</v>
+      </c>
+      <c r="M21" s="2">
+        <f>B16*(5/G21-1)^(1/B14)</f>
+        <v>157.93357687038579</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Lab3/Medições do Sistema.xlsx
+++ b/Lab3/Medições do Sistema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loure\Dropbox\Lourenço\Faculdade\5A1S\SCDTR\SCDTR-Project\Lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC31F07D-B188-4D4A-9FE2-792DAD7530D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE0559A-6232-404D-99DE-D187A38D3AF6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{94E0B860-0D7F-4EAE-AF2A-5E89F4BDE1C2}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>ui</t>
   </si>
@@ -102,7 +102,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +112,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -139,7 +147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -161,6 +169,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -317,6 +326,12 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.8199091581144463E-2"/>
+                  <c:y val="-2.1216781359945123E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -346,32 +361,26 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Folha1!$M$14:$M$21</c:f>
+              <c:f>Folha1!$M$16:$M$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.845427978671764</c:v>
+                  <c:v>21.586467524230663</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.6769026433156533</c:v>
+                  <c:v>34.361668812879849</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.586467524230663</c:v>
+                  <c:v>51.706520315048927</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.361668812879849</c:v>
+                  <c:v>69.738798253763875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>51.706520315048927</c:v>
+                  <c:v>110.01745965519456</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>69.738798253763875</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>110.01745965519456</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>157.93357687038579</c:v>
                 </c:pt>
               </c:numCache>
@@ -379,32 +388,26 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Folha1!$J$14:$J$21</c:f>
+              <c:f>Folha1!$J$16:$J$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5.690855957343528</c:v>
+                  <c:v>14.390978349487108</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.6769026433156533</c:v>
+                  <c:v>17.180834406439924</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.390978349487108</c:v>
+                  <c:v>20.68260812601957</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.180834406439924</c:v>
+                  <c:v>23.246266084587958</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.68260812601957</c:v>
+                  <c:v>27.504364913798639</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.246266084587958</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>27.504364913798639</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>31.586715374077158</c:v>
                 </c:pt>
               </c:numCache>
@@ -825,34 +828,71 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-PT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Folha1!$M$14:$M$21</c:f>
+              <c:f>Folha1!$M$15:$M$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.845427978671764</c:v>
+                  <c:v>9.6769026433156533</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.6769026433156533</c:v>
+                  <c:v>21.586467524230663</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.586467524230663</c:v>
+                  <c:v>34.361668812879849</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.361668812879849</c:v>
+                  <c:v>51.706520315048927</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>51.706520315048927</c:v>
+                  <c:v>69.738798253763875</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>69.738798253763875</c:v>
+                  <c:v>110.01745965519456</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>110.01745965519456</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>157.93357687038579</c:v>
                 </c:pt>
               </c:numCache>
@@ -860,32 +900,29 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Folha1!$L$14:$L$21</c:f>
+              <c:f>Folha1!$L$15:$L$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>4.9007999999999996E-2</c:v>
+                  <c:v>2.2291999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2291999999999999E-2</c:v>
+                  <c:v>2.23E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.23E-2</c:v>
+                  <c:v>2.0063999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0063999999999999E-2</c:v>
+                  <c:v>2.0115999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0115999999999998E-2</c:v>
+                  <c:v>1.6927999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.6927999999999999E-2</c:v>
+                  <c:v>1.2895999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2895999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>1.0544E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -1252,7 +1289,33 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>G0</c:v>
+            <c:strRef>
+              <c:f>Folha1!$J$4:$J$10</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>43.54457789</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52.46463503</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59.53931104</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63.46612472</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>68.81720779</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>78.3188322</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>81.61547702</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="9525" cap="rnd">
@@ -1350,32 +1413,29 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Folha1!$M$3:$M$10</c:f>
+              <c:f>Folha1!$M$4:$M$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>15.33846920899348</c:v>
+                  <c:v>43.544577891670087</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43.544577891670087</c:v>
+                  <c:v>78.69695254321779</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>78.69695254321779</c:v>
+                  <c:v>119.07862208406932</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>119.07862208406932</c:v>
+                  <c:v>158.66531180877584</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>158.66531180877584</c:v>
+                  <c:v>206.45162336507025</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>206.45162336507025</c:v>
+                  <c:v>313.27532879859501</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>313.27532879859501</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>408.07738508580343</c:v>
                 </c:pt>
               </c:numCache>
@@ -1383,32 +1443,29 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Folha1!$J$3:$J$10</c:f>
+              <c:f>Folha1!$J$4:$J$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>30.67693841798696</c:v>
+                  <c:v>43.544577891670087</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43.544577891670087</c:v>
+                  <c:v>52.464635028811863</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>52.464635028811863</c:v>
+                  <c:v>59.539311042034662</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>59.539311042034662</c:v>
+                  <c:v>63.466124723510333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>63.466124723510333</c:v>
+                  <c:v>68.817207788356754</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>68.817207788356754</c:v>
+                  <c:v>78.318832199648753</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>78.318832199648753</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>81.615477017160686</c:v>
                 </c:pt>
               </c:numCache>
@@ -1588,7 +1645,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="pt-PT"/>
-                  <a:t>0</a:t>
+                  <a:t>0 [Lux/V]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1829,34 +1886,90 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.1479236981460401E-2"/>
+                  <c:y val="3.0779620010206836E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-PT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Folha1!$M$3:$M$10</c:f>
+              <c:f>Folha1!$M$4:$M$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>15.33846920899348</c:v>
+                  <c:v>43.544577891670087</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43.544577891670087</c:v>
+                  <c:v>78.69695254321779</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>78.69695254321779</c:v>
+                  <c:v>119.07862208406932</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>119.07862208406932</c:v>
+                  <c:v>158.66531180877584</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>158.66531180877584</c:v>
+                  <c:v>206.45162336507025</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>206.45162336507025</c:v>
+                  <c:v>313.27532879859501</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>313.27532879859501</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>408.07738508580343</c:v>
                 </c:pt>
               </c:numCache>
@@ -1864,32 +1977,29 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Folha1!$L$3:$L$10</c:f>
+              <c:f>Folha1!$L$4:$L$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.7564E-2</c:v>
+                  <c:v>1.2144E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2144E-2</c:v>
+                  <c:v>1.0511999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0511999999999999E-2</c:v>
+                  <c:v>1.0567999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0567999999999999E-2</c:v>
+                  <c:v>8.9639999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.9639999999999997E-3</c:v>
+                  <c:v>8.1519999999999995E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.1519999999999995E-3</c:v>
+                  <c:v>7.3479999999999995E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.3479999999999995E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>6.5680000000000001E-3</c:v>
                 </c:pt>
               </c:numCache>
@@ -4706,10 +4816,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B17B447-7BE9-48E8-9D93-BEADF7CA1324}">
-  <dimension ref="A1:AH29"/>
+  <dimension ref="A1:AH32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="61" workbookViewId="0">
-      <selection activeCell="Y29" sqref="Y29"/>
+    <sheetView tabSelected="1" topLeftCell="N17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W32" sqref="W32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5313,7 +5423,7 @@
         <v>21.586467524230663</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="C17">
         <v>1.5</v>
       </c>
@@ -5355,7 +5465,7 @@
         <v>34.361668812879849</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
       <c r="C18">
         <v>2</v>
       </c>
@@ -5397,7 +5507,7 @@
         <v>51.706520315048927</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
       <c r="C19">
         <v>2.5</v>
       </c>
@@ -5439,7 +5549,7 @@
         <v>69.738798253763875</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
       <c r="C20">
         <v>3</v>
       </c>
@@ -5481,7 +5591,7 @@
         <v>110.01745965519456</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
       <c r="C21">
         <v>4</v>
       </c>
@@ -5523,10 +5633,13 @@
         <v>157.93357687038579</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>17</v>
       </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="W32" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Lab3/Medições do Sistema.xlsx
+++ b/Lab3/Medições do Sistema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loure\Dropbox\Lourenço\Faculdade\5A1S\SCDTR\SCDTR-Project\Lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE0559A-6232-404D-99DE-D187A38D3AF6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45666F84-2A69-41FB-9322-D1B69619DD0C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{94E0B860-0D7F-4EAE-AF2A-5E89F4BDE1C2}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
   <si>
     <t>ui</t>
   </si>
@@ -97,6 +97,33 @@
   <si>
     <t>K0</t>
   </si>
+  <si>
+    <t>m=-1,4449E-05</t>
+  </si>
+  <si>
+    <t>b=0,0119</t>
+  </si>
+  <si>
+    <t>[MATLAB]</t>
+  </si>
+  <si>
+    <t>m=0,1001</t>
+  </si>
+  <si>
+    <t>b=44,9773</t>
+  </si>
+  <si>
+    <t>b = 0,0237</t>
+  </si>
+  <si>
+    <t>m=-9E-05</t>
+  </si>
+  <si>
+    <t>b=13,3269</t>
+  </si>
+  <si>
+    <t>m=0,1227</t>
+  </si>
 </sst>
 </file>
 
@@ -147,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -170,6 +197,7 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1294,25 +1322,25 @@
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>43.54457789</c:v>
+                  <c:v>43,54457789</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>52.46463503</c:v>
+                  <c:v>52,46463503</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>59.53931104</c:v>
+                  <c:v>59,53931104</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>63.46612472</c:v>
+                  <c:v>63,46612472</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>68.81720779</c:v>
+                  <c:v>68,81720779</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>78.3188322</c:v>
+                  <c:v>78,3188322</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>81.61547702</c:v>
+                  <c:v>81,61547702</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4376,8 +4404,8 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>796793</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>100235</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4816,10 +4844,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B17B447-7BE9-48E8-9D93-BEADF7CA1324}">
-  <dimension ref="A1:AH32"/>
+  <dimension ref="A1:AH45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W32" sqref="W32"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA16" sqref="AA16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4830,6 +4858,7 @@
     <col min="10" max="10" width="8.7265625" customWidth="1"/>
     <col min="11" max="11" width="13" style="2" customWidth="1"/>
     <col min="13" max="13" width="11.1796875" style="2" customWidth="1"/>
+    <col min="27" max="27" width="12.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.35">
@@ -5374,6 +5403,24 @@
         <f>B16*(5/G15-1)^(1/B14)</f>
         <v>9.6769026433156533</v>
       </c>
+      <c r="Q15" t="s">
+        <v>24</v>
+      </c>
+      <c r="R15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S15" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
@@ -5422,8 +5469,12 @@
         <f>B16*(5/G16-1)^(1/B14)</f>
         <v>21.586467524230663</v>
       </c>
+      <c r="S16" s="9"/>
+      <c r="AA16">
+        <v>-1.449E-5</v>
+      </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
       <c r="C17">
         <v>1.5</v>
       </c>
@@ -5465,7 +5516,7 @@
         <v>34.361668812879849</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
       <c r="C18">
         <v>2</v>
       </c>
@@ -5506,8 +5557,10 @@
         <f>B16*(5/G18-1)^(1/B14)</f>
         <v>51.706520315048927</v>
       </c>
+      <c r="Y18" s="10"/>
+      <c r="AA18" s="10"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
       <c r="C19">
         <v>2.5</v>
       </c>
@@ -5549,7 +5602,7 @@
         <v>69.738798253763875</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
       <c r="C20">
         <v>3</v>
       </c>
@@ -5591,7 +5644,7 @@
         <v>110.01745965519456</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
       <c r="C21">
         <v>4</v>
       </c>
@@ -5633,13 +5686,36 @@
         <v>157.93357687038579</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
       <c r="W32" s="9"/>
+    </row>
+    <row r="44" spans="5:17" x14ac:dyDescent="0.35">
+      <c r="E44" t="s">
+        <v>24</v>
+      </c>
+      <c r="F44" t="s">
+        <v>30</v>
+      </c>
+      <c r="G44" t="s">
+        <v>29</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P44" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="5:17" x14ac:dyDescent="0.35">
+      <c r="F45" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Lab3/Medições do Sistema.xlsx
+++ b/Lab3/Medições do Sistema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loure\Dropbox\Lourenço\Faculdade\5A1S\SCDTR\SCDTR-Project\Lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45666F84-2A69-41FB-9322-D1B69619DD0C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22D30F2-D953-4450-8375-5AD7A5355D0E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{94E0B860-0D7F-4EAE-AF2A-5E89F4BDE1C2}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
   <si>
     <t>ui</t>
   </si>
@@ -123,6 +123,18 @@
   </si>
   <si>
     <t>m=0,1227</t>
+  </si>
+  <si>
+    <t>mG2</t>
+  </si>
+  <si>
+    <t>bG2</t>
+  </si>
+  <si>
+    <t>mtau1</t>
+  </si>
+  <si>
+    <t>btau1</t>
   </si>
 </sst>
 </file>
@@ -4846,8 +4858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B17B447-7BE9-48E8-9D93-BEADF7CA1324}">
   <dimension ref="A1:AH45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA16" sqref="AA16"/>
+    <sheetView tabSelected="1" topLeftCell="L25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P44" sqref="P44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5715,7 +5727,18 @@
       </c>
     </row>
     <row r="45" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="F45" s="7"/>
+      <c r="F45" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G45" t="s">
+        <v>32</v>
+      </c>
+      <c r="P45" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
